--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_30.07.24v_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>54.16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1699999999999946</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -528,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>291.68</v>
+        <v>53.85</v>
       </c>
       <c r="H3" t="n">
-        <v>291.15</v>
+        <v>53.96</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5300000000000296</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="J3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +563,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -573,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>291.01</v>
+        <v>1422.2</v>
       </c>
       <c r="H4" t="n">
-        <v>289.4</v>
+        <v>1419.4</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.610000000000014</v>
+        <v>2.799999999999955</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.5499999999999999</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -667,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -687,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>511.6</v>
+        <v>51.675</v>
       </c>
       <c r="H7" t="n">
-        <v>511.6</v>
+        <v>51.61</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.06499999999999773</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -705,16 +715,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -723,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>511.7</v>
+        <v>3024.6</v>
       </c>
       <c r="H8" t="n">
-        <v>511.1</v>
+        <v>3021.2</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5999999999999659</v>
+        <v>3.400000000000091</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -752,7 +764,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -761,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1044.2</v>
+        <v>166.54</v>
       </c>
       <c r="H9" t="n">
-        <v>1047.4</v>
+        <v>166.22</v>
       </c>
       <c r="I9" t="n">
-        <v>3.200000000000045</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="J9" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="10">
@@ -799,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1041.6</v>
+        <v>1044.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1046</v>
+        <v>1047.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.400000000000091</v>
+        <v>3.200000000000045</v>
       </c>
       <c r="J10" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
@@ -817,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -828,7 +840,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -837,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>166.54</v>
+        <v>1041.6</v>
       </c>
       <c r="H11" t="n">
-        <v>166.22</v>
+        <v>1046</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3199999999999932</v>
+        <v>4.400000000000091</v>
       </c>
       <c r="J11" t="n">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="12">
@@ -855,16 +867,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -873,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>165.7</v>
+        <v>511.6</v>
       </c>
       <c r="H12" t="n">
-        <v>165.68</v>
+        <v>511.6</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01999999999998181</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -891,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -902,7 +916,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -911,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>51.675</v>
+        <v>34.5</v>
       </c>
       <c r="H13" t="n">
-        <v>51.61</v>
+        <v>34.595</v>
       </c>
       <c r="I13" t="n">
-        <v>0.06499999999999773</v>
+        <v>0.09499999999999886</v>
       </c>
       <c r="J13" t="n">
-        <v>0.13</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14">
@@ -929,13 +943,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>long</t>
@@ -947,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>51.435</v>
+        <v>34.375</v>
       </c>
       <c r="H14" t="n">
-        <v>51.37</v>
+        <v>34.52</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06500000000000483</v>
+        <v>0.1450000000000031</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.13</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="15">
@@ -965,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -985,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1422.2</v>
+        <v>291.68</v>
       </c>
       <c r="H15" t="n">
-        <v>1419.4</v>
+        <v>291.15</v>
       </c>
       <c r="I15" t="n">
-        <v>2.799999999999955</v>
+        <v>0.5300000000000296</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16">
@@ -1003,13 +1019,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>long</t>
@@ -1021,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1419.4</v>
+        <v>640</v>
       </c>
       <c r="H16" t="n">
-        <v>1420</v>
+        <v>640.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5999999999999091</v>
+        <v>0.5</v>
       </c>
       <c r="J16" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17">
@@ -1039,7 +1057,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1057,16 +1075,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>140.94</v>
+        <v>53.55</v>
       </c>
       <c r="H17" t="n">
-        <v>140.78</v>
+        <v>53.51</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.1599999999999966</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.11</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1075,18 +1093,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1095,16 +1111,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>54.16</v>
+        <v>373.85</v>
       </c>
       <c r="H18" t="n">
-        <v>53.99</v>
+        <v>371.92</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1699999999999946</v>
+        <v>-1.930000000000007</v>
       </c>
       <c r="J18" t="n">
-        <v>0.31</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="19">
@@ -1113,15 +1129,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>long</t>
@@ -1133,16 +1147,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>53.85</v>
+        <v>1419.4</v>
       </c>
       <c r="H19" t="n">
-        <v>53.96</v>
+        <v>1420</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1099999999999994</v>
+        <v>0.5999999999999091</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="20">
@@ -1151,7 +1165,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1169,16 +1183,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>53.55</v>
+        <v>51.435</v>
       </c>
       <c r="H20" t="n">
-        <v>53.51</v>
+        <v>51.37</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.03999999999999915</v>
+        <v>-0.06500000000000483</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.06999999999999999</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="21">
@@ -1187,7 +1201,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1205,16 +1219,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>373.85</v>
+        <v>165.7</v>
       </c>
       <c r="H21" t="n">
-        <v>371.92</v>
+        <v>165.68</v>
       </c>
       <c r="I21" t="n">
-        <v>-1.930000000000007</v>
+        <v>-0.01999999999998181</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.52</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="22">
@@ -1223,18 +1237,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1243,16 +1255,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3024.6</v>
+        <v>511.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3021.2</v>
+        <v>511.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.400000000000091</v>
+        <v>-0.5999999999999659</v>
       </c>
       <c r="J22" t="n">
-        <v>0.11</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="23">
@@ -1261,15 +1273,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>long</t>
@@ -1281,16 +1291,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>34.5</v>
+        <v>291.01</v>
       </c>
       <c r="H23" t="n">
-        <v>34.595</v>
+        <v>289.4</v>
       </c>
       <c r="I23" t="n">
-        <v>0.09499999999999886</v>
+        <v>-1.610000000000014</v>
       </c>
       <c r="J23" t="n">
-        <v>0.28</v>
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1299,15 +1309,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>long</t>
@@ -1319,54 +1327,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>34.375</v>
+        <v>140.94</v>
       </c>
       <c r="H24" t="n">
-        <v>34.52</v>
+        <v>140.78</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1450000000000031</v>
+        <v>-0.1599999999999966</v>
       </c>
       <c r="J24" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TATN</t>
-        </is>
-      </c>
-      <c r="C25" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>640</v>
-      </c>
-      <c r="H25" t="n">
-        <v>640.5</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.08</v>
+        <v>-0.11</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1350,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1728,24 +1698,6 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
